--- a/data/people_of_intrest.xlsx
+++ b/data/people_of_intrest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/biodatascience/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7C418C-628D-4A4A-91C0-B611C6366E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC00643-686D-C842-BF9F-475B2620074A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9940" yWindow="2440" windowWidth="28240" windowHeight="17240" xr2:uid="{78B40C30-F245-C14D-848B-8C574E4394BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>long</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>Heliocentric model</t>
+  </si>
+  <si>
+    <t>Planck constant</t>
+  </si>
+  <si>
+    <t>The Grammar of Science</t>
   </si>
 </sst>
 </file>
@@ -554,7 +560,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,6 +797,9 @@
       <c r="D11">
         <v>1981</v>
       </c>
+      <c r="E11">
+        <v>1933</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -805,6 +814,9 @@
       <c r="D12">
         <v>1980</v>
       </c>
+      <c r="E12">
+        <v>1933</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -819,6 +831,12 @@
       <c r="D13">
         <v>1936</v>
       </c>
+      <c r="E13">
+        <v>1892</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -832,6 +850,12 @@
       </c>
       <c r="D14">
         <v>1947</v>
+      </c>
+      <c r="E14">
+        <v>1900</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">

--- a/data/people_of_intrest.xlsx
+++ b/data/people_of_intrest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/biodatascience/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC00643-686D-C842-BF9F-475B2620074A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE43607-AF04-8A48-91D7-E2306073805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9940" yWindow="2440" windowWidth="28240" windowHeight="17240" xr2:uid="{78B40C30-F245-C14D-848B-8C574E4394BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>long</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>The Grammar of Science</t>
+  </si>
+  <si>
+    <t>Speed of light</t>
+  </si>
+  <si>
+    <t>Ole Roemer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roemer</t>
   </si>
 </sst>
 </file>
@@ -557,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C4E1F6-8723-5D4B-8C6A-66DD0AD07D60}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -884,7 +893,28 @@
         <v>46</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16">
+        <v>1644</v>
+      </c>
+      <c r="D16">
+        <v>1710</v>
+      </c>
+      <c r="E16">
+        <v>1676</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/people_of_intrest.xlsx
+++ b/data/people_of_intrest.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/biodatascience/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE43607-AF04-8A48-91D7-E2306073805E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A4D275-8432-DA41-B2D2-E144E7729B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="2440" windowWidth="28240" windowHeight="17240" xr2:uid="{78B40C30-F245-C14D-848B-8C574E4394BD}"/>
+    <workbookView xWindow="22660" yWindow="2840" windowWidth="28240" windowHeight="17240" activeTab="3" xr2:uid="{78B40C30-F245-C14D-848B-8C574E4394BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="sunsystem" sheetId="2" r:id="rId2"/>
+    <sheet name="quantum" sheetId="3" r:id="rId3"/>
+    <sheet name="positivism" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
   <si>
     <t>long</t>
   </si>
@@ -194,7 +197,76 @@
     <t>Ole Roemer</t>
   </si>
   <si>
-    <t xml:space="preserve"> Roemer</t>
+    <t>Roemer</t>
+  </si>
+  <si>
+    <t>Ernst Mach</t>
+  </si>
+  <si>
+    <t>Max v. Pettenkofer</t>
+  </si>
+  <si>
+    <t>Karl Popper</t>
+  </si>
+  <si>
+    <t>Thomas Kuhn</t>
+  </si>
+  <si>
+    <t>Paul Feyerabend</t>
+  </si>
+  <si>
+    <t>David Deutsch</t>
+  </si>
+  <si>
+    <t>Mach</t>
+  </si>
+  <si>
+    <t>Pettenkofer</t>
+  </si>
+  <si>
+    <t>Popper</t>
+  </si>
+  <si>
+    <t>Kuhn</t>
+  </si>
+  <si>
+    <t>Feyerabend</t>
+  </si>
+  <si>
+    <t>Deutsch</t>
+  </si>
+  <si>
+    <t>Mach's principle</t>
+  </si>
+  <si>
+    <t>Drinking Cholera</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Koch</t>
+  </si>
+  <si>
+    <t>Cholera</t>
+  </si>
+  <si>
+    <t>The Logic of Scientific Discovery</t>
+  </si>
+  <si>
+    <t>The Structure of Scientific Revolutions</t>
+  </si>
+  <si>
+    <t>Postscript</t>
+  </si>
+  <si>
+    <t>Against Method: Outline of an Anarchistic Theory of Knowledge</t>
+  </si>
+  <si>
+    <t>The Beginning of Infinity</t>
+  </si>
+  <si>
+    <t>Discovery of cholera bacillus</t>
   </si>
 </sst>
 </file>
@@ -566,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C4E1F6-8723-5D4B-8C6A-66DD0AD07D60}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,8 +985,727 @@
         <v>50</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17">
+        <v>1838</v>
+      </c>
+      <c r="D17">
+        <v>1916</v>
+      </c>
+      <c r="E17">
+        <v>1883</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>1818</v>
+      </c>
+      <c r="D18">
+        <v>1901</v>
+      </c>
+      <c r="E18">
+        <v>1892</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19">
+        <v>1843</v>
+      </c>
+      <c r="D19">
+        <v>1910</v>
+      </c>
+      <c r="E19">
+        <v>1883</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20">
+        <v>1902</v>
+      </c>
+      <c r="D20">
+        <v>1994</v>
+      </c>
+      <c r="E20">
+        <v>1959</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>1922</v>
+      </c>
+      <c r="D21">
+        <v>1996</v>
+      </c>
+      <c r="E21">
+        <v>1962</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21">
+        <v>1969</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>1924</v>
+      </c>
+      <c r="D22">
+        <v>1994</v>
+      </c>
+      <c r="E22">
+        <v>1975</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23">
+        <v>1953</v>
+      </c>
+      <c r="E23">
+        <v>2011</v>
+      </c>
+      <c r="F23" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H21" r:id="rId1" tooltip="Postskriptum" display="https://de.wikipedia.org/wiki/Postskriptum" xr:uid="{7A9CA653-0B8E-4C41-BEEB-4A61B2606E6E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAF8502-E099-2A44-A070-CBCA431810CF}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1571</v>
+      </c>
+      <c r="D2">
+        <v>1630</v>
+      </c>
+      <c r="E2">
+        <v>1609</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1473</v>
+      </c>
+      <c r="D3">
+        <v>1543</v>
+      </c>
+      <c r="E3">
+        <v>1543</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1643</v>
+      </c>
+      <c r="D4">
+        <v>1727</v>
+      </c>
+      <c r="E4">
+        <v>1687</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1656</v>
+      </c>
+      <c r="D5">
+        <v>1742</v>
+      </c>
+      <c r="E5">
+        <v>1691</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>1738</v>
+      </c>
+      <c r="D6">
+        <v>1822</v>
+      </c>
+      <c r="E6">
+        <v>1801</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>1879</v>
+      </c>
+      <c r="D7">
+        <v>1955</v>
+      </c>
+      <c r="E7">
+        <v>1905</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>1916</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>1546</v>
+      </c>
+      <c r="D8">
+        <v>1601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AA4944-8A74-4344-B8C3-0E5118DBD3A8}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>1890</v>
+      </c>
+      <c r="D2">
+        <v>1962</v>
+      </c>
+      <c r="E2">
+        <v>1925</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>1935</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>1901</v>
+      </c>
+      <c r="D3">
+        <v>1976</v>
+      </c>
+      <c r="E3">
+        <v>1925</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1894</v>
+      </c>
+      <c r="D4">
+        <v>1981</v>
+      </c>
+      <c r="E4">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>1895</v>
+      </c>
+      <c r="D5">
+        <v>1980</v>
+      </c>
+      <c r="E5">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>1857</v>
+      </c>
+      <c r="D6">
+        <v>1936</v>
+      </c>
+      <c r="E6">
+        <v>1892</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>1858</v>
+      </c>
+      <c r="D7">
+        <v>1947</v>
+      </c>
+      <c r="E7">
+        <v>1900</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>1822</v>
+      </c>
+      <c r="D8">
+        <v>1884</v>
+      </c>
+      <c r="E8">
+        <v>1865</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>1900</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2890218-D83F-DE44-8542-8FAE72B3846A}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="51.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>1838</v>
+      </c>
+      <c r="D2">
+        <v>1916</v>
+      </c>
+      <c r="E2">
+        <v>1883</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>1818</v>
+      </c>
+      <c r="D3">
+        <v>1901</v>
+      </c>
+      <c r="E3">
+        <v>1892</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>1843</v>
+      </c>
+      <c r="D4">
+        <v>1910</v>
+      </c>
+      <c r="E4">
+        <v>1883</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>1902</v>
+      </c>
+      <c r="D5">
+        <v>1994</v>
+      </c>
+      <c r="E5">
+        <v>1959</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>1922</v>
+      </c>
+      <c r="D6">
+        <v>1996</v>
+      </c>
+      <c r="E6">
+        <v>1962</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>1969</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>1924</v>
+      </c>
+      <c r="D7">
+        <v>1994</v>
+      </c>
+      <c r="E7">
+        <v>1975</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>1953</v>
+      </c>
+      <c r="D8">
+        <v>2026</v>
+      </c>
+      <c r="E8">
+        <v>2011</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" tooltip="Postskriptum" display="https://de.wikipedia.org/wiki/Postskriptum" xr:uid="{DFAE353B-04AB-6149-B8C7-09E056965AD3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/people_of_intrest.xlsx
+++ b/data/people_of_intrest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/biodatascience/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A4D275-8432-DA41-B2D2-E144E7729B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1E0E8A-90ED-DF4B-A27B-D4BE2BA4F7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22660" yWindow="2840" windowWidth="28240" windowHeight="17240" activeTab="3" xr2:uid="{78B40C30-F245-C14D-848B-8C574E4394BD}"/>
+    <workbookView xWindow="10380" yWindow="2260" windowWidth="28240" windowHeight="17240" activeTab="3" xr2:uid="{78B40C30-F245-C14D-848B-8C574E4394BD}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
   <si>
     <t>long</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Discovery of cholera bacillus</t>
+  </si>
+  <si>
+    <t>Vienna Circle</t>
+  </si>
+  <si>
+    <t>The Manifesto</t>
   </si>
 </sst>
 </file>
@@ -1519,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2890218-D83F-DE44-8542-8FAE72B3846A}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1702,10 +1708,31 @@
         <v>74</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <v>1924</v>
+      </c>
+      <c r="D9">
+        <v>1936</v>
+      </c>
+      <c r="E9">
+        <v>1929</v>
+      </c>
+      <c r="F9" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" tooltip="Postskriptum" display="https://de.wikipedia.org/wiki/Postskriptum" xr:uid="{DFAE353B-04AB-6149-B8C7-09E056965AD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/people_of_intrest.xlsx
+++ b/data/people_of_intrest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/biodatascience/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1E0E8A-90ED-DF4B-A27B-D4BE2BA4F7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B080654-0D56-594E-9F1E-F5EA48266538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="2260" windowWidth="28240" windowHeight="17240" activeTab="3" xr2:uid="{78B40C30-F245-C14D-848B-8C574E4394BD}"/>
+    <workbookView xWindow="17220" yWindow="2240" windowWidth="28240" windowHeight="17240" activeTab="3" xr2:uid="{78B40C30-F245-C14D-848B-8C574E4394BD}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="81">
   <si>
     <t>long</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>The Manifesto</t>
+  </si>
+  <si>
+    <t>Auguste Comte</t>
+  </si>
+  <si>
+    <t>Comte</t>
+  </si>
+  <si>
+    <t>Philosophie des Positivismus</t>
   </si>
 </sst>
 </file>
@@ -1525,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2890218-D83F-DE44-8542-8FAE72B3846A}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -1533,6 +1542,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1728,9 +1738,30 @@
         <v>77</v>
       </c>
     </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>1798</v>
+      </c>
+      <c r="D10">
+        <v>1857</v>
+      </c>
+      <c r="E10">
+        <v>1822</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" tooltip="Postskriptum" display="https://de.wikipedia.org/wiki/Postskriptum" xr:uid="{DFAE353B-04AB-6149-B8C7-09E056965AD3}"/>
+    <hyperlink ref="F10" r:id="rId2" tooltip="Positivismus" display="https://de.wikipedia.org/wiki/Positivismus" xr:uid="{4E7545F7-2F83-1B45-B878-D0C745F8F8EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/people_of_intrest.xlsx
+++ b/data/people_of_intrest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/biodatascience/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B080654-0D56-594E-9F1E-F5EA48266538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F68A33-BB84-BB41-A136-99875AFA675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="2240" windowWidth="28240" windowHeight="17240" activeTab="3" xr2:uid="{78B40C30-F245-C14D-848B-8C574E4394BD}"/>
+    <workbookView xWindow="15960" yWindow="2240" windowWidth="22440" windowHeight="17240" activeTab="3" xr2:uid="{78B40C30-F245-C14D-848B-8C574E4394BD}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
   <si>
     <t>long</t>
   </si>
@@ -282,6 +282,24 @@
   </si>
   <si>
     <t>Philosophie des Positivismus</t>
+  </si>
+  <si>
+    <t>Ayn Rand</t>
+  </si>
+  <si>
+    <t>Rand</t>
+  </si>
+  <si>
+    <t>Objectivism</t>
+  </si>
+  <si>
+    <t>Pierre Duhem</t>
+  </si>
+  <si>
+    <t>Duhem</t>
+  </si>
+  <si>
+    <t>Instrumentalism</t>
   </si>
 </sst>
 </file>
@@ -1534,15 +1552,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2890218-D83F-DE44-8542-8FAE72B3846A}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1756,6 +1775,46 @@
       </c>
       <c r="F10" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11">
+        <v>1905</v>
+      </c>
+      <c r="D11">
+        <v>1982</v>
+      </c>
+      <c r="E11">
+        <v>1943</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>1861</v>
+      </c>
+      <c r="D12">
+        <v>1916</v>
+      </c>
+      <c r="E12">
+        <v>1906</v>
+      </c>
+      <c r="F12" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/people_of_intrest.xlsx
+++ b/data/people_of_intrest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/biodatascience/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F68A33-BB84-BB41-A136-99875AFA675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA70823-AF47-414C-AC6E-A24DFC9E24D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15960" yWindow="2240" windowWidth="22440" windowHeight="17240" activeTab="3" xr2:uid="{78B40C30-F245-C14D-848B-8C574E4394BD}"/>
   </bookViews>
@@ -281,9 +281,6 @@
     <t>Comte</t>
   </si>
   <si>
-    <t>Philosophie des Positivismus</t>
-  </si>
-  <si>
     <t>Ayn Rand</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>Instrumentalism</t>
+  </si>
+  <si>
+    <t>Positivism</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1555,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1774,15 +1774,15 @@
         <v>1822</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
         <v>81</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
       </c>
       <c r="C11">
         <v>1905</v>
@@ -1794,15 +1794,15 @@
         <v>1943</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
         <v>84</v>
-      </c>
-      <c r="B12" t="s">
-        <v>85</v>
       </c>
       <c r="C12">
         <v>1861</v>
@@ -1814,13 +1814,12 @@
         <v>1906</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" tooltip="Postskriptum" display="https://de.wikipedia.org/wiki/Postskriptum" xr:uid="{DFAE353B-04AB-6149-B8C7-09E056965AD3}"/>
-    <hyperlink ref="F10" r:id="rId2" tooltip="Positivismus" display="https://de.wikipedia.org/wiki/Positivismus" xr:uid="{4E7545F7-2F83-1B45-B878-D0C745F8F8EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
